--- a/Assets/Resources/ChatData/user_chat_config.xlsx
+++ b/Assets/Resources/ChatData/user_chat_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="11145"/>
+    <workbookView windowWidth="28125" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>battle</t>
   </si>
   <si>
-    <t>Slime:3:1-5;Slime:1:10-10</t>
+    <t>BigSlime:1-5;Slime:10-10</t>
   </si>
   <si>
     <t>再见</t>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Assets/Resources/ChatData/user_chat_config.xlsx
+++ b/Assets/Resources/ChatData/user_chat_config.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11145"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -77,12 +77,15 @@
     <t>#</t>
   </si>
   <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>你好！</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>战斗！</t>
+  </si>
+  <si>
     <t>option</t>
   </si>
   <si>
@@ -120,6 +123,12 @@
   </si>
   <si>
     <t>我再想想</t>
+  </si>
+  <si>
+    <t>YuNa</t>
+  </si>
+  <si>
+    <t>11-12</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,6 +1166,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
+        <f t="shared" ref="A2:A13" si="0">ROW(A2)-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1171,14 +1181,14 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="F2">
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1189,10 +1199,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1201,30 +1212,26 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1235,8 +1242,8 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="F4">
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -1244,19 +1251,20 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1265,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1274,71 +1282,73 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -1349,31 +1359,32 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
-        <v>24</v>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>14</v>
@@ -1381,16 +1392,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1405,14 +1417,137 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J9" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J13" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
